--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_3.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Họ tên</t>
   </si>
@@ -32,40 +32,67 @@
     <t>Điểm</t>
   </si>
   <si>
-    <t xml:space="preserve">Phạm Thành  Hậu</t>
-  </si>
-  <si>
-    <t>1@gmail.com</t>
-  </si>
-  <si>
-    <t>01:00:23 07/05/2023</t>
-  </si>
-  <si>
-    <t>23:13:00 14/04/2023</t>
-  </si>
-  <si>
-    <t>Nộp muộn</t>
+    <t>Nguyễn Văn Kha</t>
+  </si>
+  <si>
+    <t>2@gmail.com</t>
+  </si>
+  <si>
+    <t>00:02:18 26/06/2023</t>
+  </si>
+  <si>
+    <t>12:01:00 27/06/2023</t>
+  </si>
+  <si>
+    <t>Đã nộp</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2@gmail.com</t>
-  </si>
-  <si>
-    <t>Chưa Nộp</t>
+    <t>Nguyễn Văn Phụng</t>
+  </si>
+  <si>
+    <t>5@gmail.com</t>
+  </si>
+  <si>
+    <t>00:05:01 26/06/2023</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Sang</t>
+  </si>
+  <si>
+    <t>6@gmail.com</t>
+  </si>
+  <si>
+    <t>00:17:15 26/06/2023</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Sương</t>
+  </si>
+  <si>
+    <t>7@gmail.com</t>
+  </si>
+  <si>
+    <t>00:16:27 26/06/2023</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thế</t>
   </si>
   <si>
     <t>3@gmail.com</t>
   </si>
   <si>
+    <t>00:16:46 26/06/2023</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Việt</t>
+  </si>
+  <si>
     <t>4@gmail.com</t>
   </si>
   <si>
-    <t>5@gmail.com</t>
-  </si>
-  <si>
-    <t>6@gmail.com</t>
+    <t>00:17:01 26/06/2023</t>
   </si>
 </sst>
 </file>
@@ -73,7 +100,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -86,11 +113,6 @@
     <font>
       <sz val="16"/>
       <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000" tint="0"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -119,11 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,11 +161,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5128917694092" customWidth="1"/>
+    <col min="1" max="1" width="25.4295558929443" customWidth="1"/>
     <col min="2" max="2" width="18.6245002746582" customWidth="1"/>
     <col min="3" max="3" width="28.1006889343262" customWidth="1"/>
     <col min="4" max="4" width="28.1006889343262" customWidth="1"/>
-    <col min="5" max="5" width="14.5158700942993" customWidth="1"/>
+    <col min="5" max="5" width="13.9027738571167" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -181,7 +202,7 @@
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -190,19 +211,19 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -210,19 +231,19 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
@@ -230,19 +251,19 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
@@ -250,19 +271,19 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>11</v>
@@ -270,19 +291,19 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>11</v>
